--- a/output/1Y_P48_1VAL-D.xlsx
+++ b/output/1Y_P48_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>20.979</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>476.6671</v>
       </c>
-      <c r="G2" s="1">
-        <v>476.6671</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.186299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>20.979</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.186299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E3" s="1">
+        <v>476.6671</v>
+      </c>
       <c r="F3" s="1">
         <v>446.606</v>
       </c>
-      <c r="G3" s="1">
-        <v>923.2732</v>
-      </c>
       <c r="H3" s="1">
-        <v>20566.002</v>
+        <v>10617.8083</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.6621</v>
+        <v>10617.8083</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>20.979</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20566.002</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.031</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E4" s="1">
+        <v>923.2732</v>
+      </c>
       <c r="F4" s="1">
         <v>430.0465</v>
       </c>
-      <c r="G4" s="1">
-        <v>1353.3196</v>
-      </c>
       <c r="H4" s="1">
-        <v>31305.9374</v>
+        <v>21357.801</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>22.1677</v>
+        <v>21357.801</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.6621</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31305.9374</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0242</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>22.965</v>
       </c>
+      <c r="E5" s="1">
+        <v>1353.3196</v>
+      </c>
       <c r="F5" s="1">
         <v>435.4452</v>
       </c>
-      <c r="G5" s="1">
-        <v>1788.7649</v>
-      </c>
       <c r="H5" s="1">
-        <v>40865.9438</v>
+        <v>30917.8054</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>22.3618</v>
+        <v>30917.8054</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.1677</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40865.9438</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0107</v>
+        <v>-0.014</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>19.9668</v>
       </c>
+      <c r="E6" s="1">
+        <v>1788.7649</v>
+      </c>
       <c r="F6" s="1">
         <v>500.8314</v>
       </c>
-      <c r="G6" s="1">
-        <v>2289.5963</v>
-      </c>
       <c r="H6" s="1">
-        <v>45478.9376</v>
+        <v>35530.7737</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>21.8379</v>
+        <v>35530.7737</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.3618</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45478.9376</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.1059</v>
+        <v>-0.1317</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>18.2441</v>
       </c>
+      <c r="E7" s="1">
+        <v>2289.5963</v>
+      </c>
       <c r="F7" s="1">
         <v>548.1224</v>
       </c>
-      <c r="G7" s="1">
-        <v>2837.7187</v>
-      </c>
       <c r="H7" s="1">
-        <v>51503.1752</v>
+        <v>41555.0275</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>21.1437</v>
+        <v>41555.0275</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.8379</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>51503.1752</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0717</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.3227</v>
       </c>
+      <c r="E8" s="1">
+        <v>2837.7187</v>
+      </c>
       <c r="F8" s="1">
         <v>698.1924</v>
       </c>
-      <c r="G8" s="1">
-        <v>3535.9111</v>
-      </c>
       <c r="H8" s="1">
-        <v>50381.0751</v>
+        <v>40432.9508</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>19.7969</v>
+        <v>40432.9508</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>21.1437</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
-        <v>5107.8936</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-4892.1064</v>
+        <v>4121.2733</v>
       </c>
       <c r="O8" s="1">
-        <v>5107.8936</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>55488.9687</v>
+        <v>-5878.7267</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0978</v>
+        <v>-0.2157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>15.7433</v>
       </c>
+      <c r="E9" s="1">
+        <v>3535.9111</v>
+      </c>
       <c r="F9" s="1">
-        <v>700.0806</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4235.9916</v>
+        <v>687.5467</v>
       </c>
       <c r="H9" s="1">
-        <v>66342.83040000001</v>
+        <v>55378.3782</v>
       </c>
       <c r="I9" s="1">
-        <v>81021.5787</v>
+        <v>4121.2733</v>
       </c>
       <c r="J9" s="1">
-        <v>19.1269</v>
+        <v>59499.6515</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70824.2547</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.03</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-11021.5787</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>4086.3149</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>70429.1453</v>
+        <v>-10824.2547</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.07539999999999999</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>16.1934</v>
       </c>
+      <c r="E10" s="1">
+        <v>4223.4578</v>
+      </c>
       <c r="F10" s="1">
-        <v>680.6217</v>
-      </c>
-      <c r="G10" s="1">
-        <v>4916.6133</v>
+        <v>668.4362</v>
       </c>
       <c r="H10" s="1">
-        <v>79203.6903</v>
+        <v>68037.3711</v>
       </c>
       <c r="I10" s="1">
-        <v>92043.1574</v>
+        <v>3297.0186</v>
       </c>
       <c r="J10" s="1">
-        <v>18.7208</v>
+        <v>71334.3898</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81648.50930000001</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>19.3321</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11021.5787</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>3064.7362</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>82268.4265</v>
+        <v>-10824.2547</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0229</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>15.2218</v>
       </c>
+      <c r="E11" s="1">
+        <v>4891.894</v>
+      </c>
       <c r="F11" s="1">
-        <v>724.0654</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5640.6787</v>
+        <v>711.1021</v>
       </c>
       <c r="H11" s="1">
-        <v>85416.2335</v>
+        <v>74077.4616</v>
       </c>
       <c r="I11" s="1">
-        <v>103064.7362</v>
+        <v>2472.764</v>
       </c>
       <c r="J11" s="1">
-        <v>18.2717</v>
+        <v>76550.22560000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92472.764</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.9033</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-11021.5787</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>2043.1574</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>87459.391</v>
+        <v>-10824.2547</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0521</v>
+        <v>-0.0588</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>14.0702</v>
       </c>
+      <c r="E12" s="1">
+        <v>5602.9961</v>
+      </c>
       <c r="F12" s="1">
-        <v>783.3278</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6424.0065</v>
+        <v>769.3035</v>
       </c>
       <c r="H12" s="1">
-        <v>89918.7461</v>
+        <v>78426.81789999999</v>
       </c>
       <c r="I12" s="1">
-        <v>114086.3149</v>
+        <v>1648.5093</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7594</v>
+        <v>80075.3272</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>103297.0186</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.436</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-11021.5787</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1021.5787</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>90940.32490000001</v>
+        <v>-10824.2547</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0669</v>
+        <v>-0.07480000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>13.8476</v>
       </c>
+      <c r="E13" s="1">
+        <v>6372.2997</v>
+      </c>
       <c r="F13" s="1">
-        <v>795.9198</v>
-      </c>
-      <c r="G13" s="1">
-        <v>7219.9263</v>
+        <v>781.6701</v>
       </c>
       <c r="H13" s="1">
-        <v>99460.2604</v>
+        <v>87783.526</v>
       </c>
       <c r="I13" s="1">
-        <v>125107.8936</v>
+        <v>824.2547</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3281</v>
+        <v>88607.7806</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114121.2733</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.909</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-11021.5787</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>99460.2604</v>
+        <v>-10824.2547</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0147</v>
+        <v>-0.0163</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.6185</v>
       </c>
+      <c r="E14" s="1">
+        <v>7153.9698</v>
+      </c>
       <c r="F14" s="1">
-        <v>-7219.9263</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6372.2997</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>104038.0361</v>
       </c>
       <c r="I14" s="1">
-        <v>125107.8936</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3281</v>
+        <v>104038.0361</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114121.2733</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9522</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104997.2219</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>104997.2219</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>104997.2219</v>
+        <v>92670.44259999999</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0408</v>
+        <v>0.0551</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>20.979</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>476.6671</v>
       </c>
       <c r="G2" s="1">
-        <v>476.6671</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.186299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>20.979</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.186299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>22.3911</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>476.6671</v>
       </c>
       <c r="F3" s="1">
         <v>421.1964</v>
       </c>
       <c r="G3" s="1">
-        <v>897.8635</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10617.8083</v>
       </c>
       <c r="I3" s="1">
-        <v>19431.0505</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.6414</v>
+        <v>10617.8083</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9431.050499999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.7854</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9431.050499999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>568.9494999999999</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20568.9495</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0311</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>23.2533</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>897.8635</v>
       </c>
       <c r="F4" s="1">
         <v>399.0019</v>
       </c>
       <c r="G4" s="1">
-        <v>1296.8655</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>20770.0078</v>
       </c>
       <c r="I4" s="1">
-        <v>28709.1624</v>
+        <v>568.9494999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>22.1373</v>
+        <v>21338.9573</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18709.1624</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>20.8374</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9278.1119</v>
       </c>
-      <c r="O4" s="1">
-        <v>1290.8376</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31290.8376</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0236</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>22.965</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>1296.8655</v>
       </c>
       <c r="F5" s="1">
         <v>453.9957</v>
       </c>
       <c r="G5" s="1">
-        <v>1750.8612</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>29628.059</v>
       </c>
       <c r="I5" s="1">
-        <v>39135.1743</v>
+        <v>1290.8376</v>
       </c>
       <c r="J5" s="1">
-        <v>22.352</v>
+        <v>30918.8966</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29135.1743</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.4658</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10426.0119</v>
       </c>
-      <c r="O5" s="1">
-        <v>864.8257</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40864.8257</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0103</v>
+        <v>-0.0134</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>19.9668</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>1750.8612</v>
       </c>
       <c r="F6" s="1">
         <v>544.1446</v>
       </c>
       <c r="G6" s="1">
-        <v>2295.0058</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>45586.3881</v>
+        <v>34777.8814</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>864.8257</v>
       </c>
       <c r="J6" s="1">
-        <v>21.7864</v>
+        <v>35642.7071</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.8459</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10864.8257</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45586.3881</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.1038</v>
+        <v>-0.1289</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>18.2441</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>2295.0058</v>
       </c>
       <c r="F7" s="1">
         <v>548.1224</v>
       </c>
       <c r="G7" s="1">
-        <v>2843.1282</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>51601.3549</v>
+        <v>41653.2072</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>21.1035</v>
+        <v>41653.2072</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.7864</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>51601.3549</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0717</v>
+        <v>-0.08740000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.3227</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>2843.1282</v>
       </c>
       <c r="F8" s="1">
         <v>698.1924</v>
       </c>
       <c r="G8" s="1">
-        <v>3541.3206</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>50458.1518</v>
+        <v>40510.0275</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>19.7666</v>
+        <v>40510.0275</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>21.1035</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
-        <v>5117.6307</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-4882.3693</v>
+        <v>4131.0104</v>
       </c>
       <c r="O8" s="1">
-        <v>5117.6307</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>55575.7826</v>
+        <v>-5868.9896</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0978</v>
+        <v>-0.2157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>15.7433</v>
       </c>
       <c r="E9" s="1">
+        <v>3541.3206</v>
+      </c>
+      <c r="F9" s="1">
+        <v>897.5888</v>
+      </c>
+      <c r="G9" s="1">
         <v>80000</v>
       </c>
-      <c r="F9" s="1">
-        <v>960.2581</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4501.5786</v>
-      </c>
       <c r="H9" s="1">
-        <v>70502.3738</v>
+        <v>55463.1002</v>
       </c>
       <c r="I9" s="1">
-        <v>85117.63069999999</v>
+        <v>4131.0104</v>
       </c>
       <c r="J9" s="1">
-        <v>18.9084</v>
+        <v>59594.1106</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>74131.0104</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.9332</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-15117.6307</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>70502.3738</v>
+        <v>-14131.0104</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0751</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>16.1934</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4438.9094</v>
       </c>
       <c r="F10" s="1">
         <v>617.5355</v>
       </c>
       <c r="G10" s="1">
-        <v>5119.1142</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>82465.8576</v>
+        <v>71508.16710000001</v>
       </c>
       <c r="I10" s="1">
-        <v>95117.63069999999</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>18.5809</v>
+        <v>71508.16710000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84131.0104</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.9531</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82465.8576</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0244</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>15.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>5056.4449</v>
       </c>
       <c r="F11" s="1">
         <v>656.9525</v>
       </c>
       <c r="G11" s="1">
-        <v>5776.0667</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87466.4002</v>
+        <v>76569.24000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>105117.6307</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.1988</v>
+        <v>76569.24000000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94131.0104</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.616</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>87466.4002</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0541</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>14.0702</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>5713.3975</v>
       </c>
       <c r="F12" s="1">
         <v>710.722</v>
       </c>
       <c r="G12" s="1">
-        <v>6486.7886</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>90797.5266</v>
+        <v>79972.13830000001</v>
       </c>
       <c r="I12" s="1">
-        <v>115117.6307</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7465</v>
+        <v>79972.13830000001</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104131.0104</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2258</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>90797.5266</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0684</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>13.8476</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>6424.1194</v>
       </c>
       <c r="F13" s="1">
         <v>722.1468</v>
       </c>
       <c r="G13" s="1">
-        <v>7208.9354</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>99308.85279999999</v>
+        <v>88497.38430000001</v>
       </c>
       <c r="I13" s="1">
-        <v>125117.6307</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3559</v>
+        <v>88497.38430000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114131.0104</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.766</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>99308.85279999999</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0148</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,43 +2092,43 @@
         <v>14.6185</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7146.2662</v>
       </c>
       <c r="F14" s="1">
-        <v>-7208.9354</v>
+        <v>-7146.2662</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>103926.0057</v>
       </c>
       <c r="I14" s="1">
-        <v>125117.6307</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3559</v>
+        <v>103926.0057</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114131.0104</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9707</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104837.3854</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>104837.3854</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>104837.3854</v>
+        <v>103926.0057</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0409</v>
+        <v>0.0551</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>20.979</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>476.6671</v>
       </c>
       <c r="G2" s="1">
-        <v>476.6671</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.186299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>20.979</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.186299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>22.3911</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>476.6671</v>
       </c>
       <c r="F3" s="1">
         <v>423.441</v>
       </c>
       <c r="G3" s="1">
-        <v>900.1082</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10617.8083</v>
       </c>
       <c r="I3" s="1">
-        <v>19481.3109</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.6433</v>
+        <v>10617.8083</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9481.3109</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.8908</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9481.3109</v>
       </c>
-      <c r="O3" s="1">
-        <v>518.6891000000001</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20568.6891</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0311</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>23.2533</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>900.1082</v>
       </c>
       <c r="F4" s="1">
         <v>403.2524</v>
       </c>
       <c r="G4" s="1">
-        <v>1303.3606</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>20821.9328</v>
       </c>
       <c r="I4" s="1">
-        <v>28858.2603</v>
+        <v>518.6891000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>22.1414</v>
+        <v>21340.6219</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18858.2603</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>20.9511</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9376.949500000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>1141.7397</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31291.9897</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0237</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>22.965</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>1303.3606</v>
       </c>
       <c r="F5" s="1">
         <v>460.6759</v>
       </c>
       <c r="G5" s="1">
-        <v>1764.0365</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>29776.4462</v>
       </c>
       <c r="I5" s="1">
-        <v>39437.6819</v>
+        <v>1141.7397</v>
       </c>
       <c r="J5" s="1">
-        <v>22.3565</v>
+        <v>30918.1858</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29437.6819</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.586</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10579.4216</v>
       </c>
-      <c r="O5" s="1">
-        <v>562.3181</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40863.3193</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0104</v>
+        <v>-0.0135</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>19.9668</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>1764.0365</v>
       </c>
       <c r="F6" s="1">
         <v>528.994</v>
       </c>
       <c r="G6" s="1">
-        <v>2293.0305</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>45547.1532</v>
+        <v>35039.586</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>562.3181</v>
       </c>
       <c r="J6" s="1">
-        <v>21.8052</v>
+        <v>35601.9041</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.6753</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10562.3181</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45547.1532</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.1045</v>
+        <v>-0.1299</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>18.2441</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>2293.0305</v>
       </c>
       <c r="F7" s="1">
         <v>548.1224</v>
       </c>
       <c r="G7" s="1">
-        <v>2841.1529</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>51565.5051</v>
+        <v>41617.3575</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>21.1182</v>
+        <v>41617.3575</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.8052</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>51565.5051</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0717</v>
+        <v>-0.08740000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.3227</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>2841.1529</v>
       </c>
       <c r="F8" s="1">
         <v>698.1924</v>
       </c>
       <c r="G8" s="1">
-        <v>3539.3453</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>50430.0077</v>
+        <v>40481.8834</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>19.7777</v>
+        <v>40481.8834</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>21.1182</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
-        <v>5114.0753</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-4885.9247</v>
+        <v>4127.4549</v>
       </c>
       <c r="O8" s="1">
-        <v>5114.0753</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>55544.083</v>
+        <v>-5872.5451</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0978</v>
+        <v>-0.2157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>15.7433</v>
       </c>
       <c r="E9" s="1">
+        <v>3539.3453</v>
+      </c>
+      <c r="F9" s="1">
+        <v>897.3630000000001</v>
+      </c>
+      <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
-      <c r="F9" s="1">
-        <v>960.0322</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4499.3775</v>
-      </c>
       <c r="H9" s="1">
-        <v>70467.9011</v>
+        <v>55432.1645</v>
       </c>
       <c r="I9" s="1">
-        <v>85114.0753</v>
+        <v>4127.4549</v>
       </c>
       <c r="J9" s="1">
-        <v>18.9169</v>
+        <v>59559.6194</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>74127.4549</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.9438</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-15114.0753</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>70467.9011</v>
+        <v>-14127.4549</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0751</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>16.1934</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4436.7083</v>
       </c>
       <c r="F10" s="1">
         <v>617.5355</v>
       </c>
       <c r="G10" s="1">
-        <v>5116.9131</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>82430.3995</v>
+        <v>71472.7089</v>
       </c>
       <c r="I10" s="1">
-        <v>95114.0753</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>18.5882</v>
+        <v>71472.7089</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84127.4549</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.9617</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82430.3995</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0244</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>15.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>5054.2439</v>
       </c>
       <c r="F11" s="1">
         <v>656.9525</v>
       </c>
       <c r="G11" s="1">
-        <v>5773.8656</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>87433.06939999999</v>
+        <v>76535.90919999999</v>
       </c>
       <c r="I11" s="1">
-        <v>105114.0753</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.2051</v>
+        <v>76535.90919999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94127.4549</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.6234</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>87433.06939999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0541</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>14.0702</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>5711.1964</v>
       </c>
       <c r="F12" s="1">
         <v>710.722</v>
       </c>
       <c r="G12" s="1">
-        <v>6484.5876</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>90766.71739999999</v>
+        <v>79941.3291</v>
       </c>
       <c r="I12" s="1">
-        <v>115114.0753</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.752</v>
+        <v>79941.3291</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104127.4549</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2322</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>90766.71739999999</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0684</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>13.8476</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>6421.9183</v>
       </c>
       <c r="F13" s="1">
         <v>722.1468</v>
       </c>
       <c r="G13" s="1">
-        <v>7206.7344</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>99278.53109999999</v>
+        <v>88467.0626</v>
       </c>
       <c r="I13" s="1">
-        <v>125114.0753</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3607</v>
+        <v>88467.0626</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114127.4549</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7716</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>99278.53109999999</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0148</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,43 +2860,43 @@
         <v>14.6185</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7144.0651</v>
       </c>
       <c r="F14" s="1">
-        <v>-7206.7344</v>
+        <v>-7144.0651</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>103893.996</v>
       </c>
       <c r="I14" s="1">
-        <v>125114.0753</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3607</v>
+        <v>103893.996</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114127.4549</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9751</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104805.3756</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>104805.3756</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>104805.3756</v>
+        <v>103893.996</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0409</v>
+        <v>0.0551</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>20.979</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>476.6671</v>
       </c>
       <c r="G2" s="1">
-        <v>476.6671</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.186299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>20.979</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.186299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>22.3911</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>476.6671</v>
       </c>
       <c r="F3" s="1">
         <v>425.6857</v>
       </c>
       <c r="G3" s="1">
-        <v>902.3529</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10617.8083</v>
       </c>
       <c r="I3" s="1">
-        <v>19531.5713</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.6452</v>
+        <v>10617.8083</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9531.5713</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>19.9963</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9531.5713</v>
       </c>
-      <c r="O3" s="1">
-        <v>468.4287</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20568.4287</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0311</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>23.2533</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>902.3529</v>
       </c>
       <c r="F4" s="1">
         <v>407.5245</v>
       </c>
       <c r="G4" s="1">
-        <v>1309.8774</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>20873.8578</v>
       </c>
       <c r="I4" s="1">
-        <v>29007.8609</v>
+        <v>468.4287</v>
       </c>
       <c r="J4" s="1">
-        <v>22.1455</v>
+        <v>21342.2865</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19007.8609</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.0648</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9476.289699999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>992.1391</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31293.1391</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0237</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>22.965</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>1309.8774</v>
       </c>
       <c r="F5" s="1">
         <v>467.4223</v>
       </c>
       <c r="G5" s="1">
-        <v>1777.2996</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>29925.3272</v>
       </c>
       <c r="I5" s="1">
-        <v>39742.2137</v>
+        <v>992.1391</v>
       </c>
       <c r="J5" s="1">
-        <v>22.361</v>
+        <v>30917.4663</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>29742.2137</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.7061</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10734.3528</v>
       </c>
-      <c r="O5" s="1">
-        <v>257.7863</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40861.7963</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0104</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>19.9668</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>1777.2996</v>
       </c>
       <c r="F6" s="1">
         <v>513.7421000000001</v>
       </c>
       <c r="G6" s="1">
-        <v>2291.0418</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>45507.65</v>
+        <v>35303.0361</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>257.7863</v>
       </c>
       <c r="J6" s="1">
-        <v>21.8241</v>
+        <v>35560.8223</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.5061</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10257.7863</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45507.65</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.1053</v>
+        <v>-0.1309</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>18.2441</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>2291.0418</v>
       </c>
       <c r="F7" s="1">
         <v>548.1224</v>
       </c>
       <c r="G7" s="1">
-        <v>2839.1642</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51529.4103</v>
+        <v>41581.2626</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>21.133</v>
+        <v>41581.2626</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.8241</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>51529.4103</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0717</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.3227</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>2839.1642</v>
       </c>
       <c r="F8" s="1">
         <v>698.1924</v>
       </c>
       <c r="G8" s="1">
-        <v>3537.3566</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>50401.6712</v>
+        <v>40453.5469</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>19.7888</v>
+        <v>40453.5469</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>21.133</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
-        <v>5110.4955</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-4889.5045</v>
+        <v>4123.8752</v>
       </c>
       <c r="O8" s="1">
-        <v>5110.4955</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>55512.1667</v>
+        <v>-5876.1248</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0978</v>
+        <v>-0.2157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>15.7433</v>
       </c>
       <c r="E9" s="1">
+        <v>3537.3566</v>
+      </c>
+      <c r="F9" s="1">
+        <v>897.1356</v>
+      </c>
+      <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
-      <c r="F9" s="1">
-        <v>959.8048</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4497.1614</v>
-      </c>
       <c r="H9" s="1">
-        <v>70433.1927</v>
+        <v>55401.0172</v>
       </c>
       <c r="I9" s="1">
-        <v>85110.4955</v>
+        <v>4123.8752</v>
       </c>
       <c r="J9" s="1">
-        <v>18.9254</v>
+        <v>59524.8924</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>74123.87519999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.9546</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-15110.4955</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>-0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>70433.1927</v>
+        <v>-14123.8752</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0751</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>16.1934</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4434.4922</v>
       </c>
       <c r="F10" s="1">
         <v>617.5355</v>
       </c>
       <c r="G10" s="1">
-        <v>5114.6969</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>82394.6988</v>
+        <v>71437.0083</v>
       </c>
       <c r="I10" s="1">
-        <v>95110.4955</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>18.5955</v>
+        <v>71437.0083</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84123.87519999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.9704</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82394.6988</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0244</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>15.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>5052.0277</v>
       </c>
       <c r="F11" s="1">
         <v>656.9525</v>
       </c>
       <c r="G11" s="1">
-        <v>5771.6495</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>87399.5107</v>
+        <v>76502.3505</v>
       </c>
       <c r="I11" s="1">
-        <v>105110.4955</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.2115</v>
+        <v>76502.3505</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94123.87519999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.6309</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>87399.5107</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0541</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>14.0702</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5708.9802</v>
       </c>
       <c r="F12" s="1">
         <v>710.722</v>
       </c>
       <c r="G12" s="1">
-        <v>6482.3714</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>90735.6974</v>
+        <v>79910.3092</v>
       </c>
       <c r="I12" s="1">
-        <v>115110.4955</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.7575</v>
+        <v>79910.3092</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104123.8752</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2386</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>90735.6974</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0684</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>13.8476</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>6419.7022</v>
       </c>
       <c r="F13" s="1">
         <v>722.1468</v>
       </c>
       <c r="G13" s="1">
-        <v>7204.5182</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>99248.00199999999</v>
+        <v>88436.53350000001</v>
       </c>
       <c r="I13" s="1">
-        <v>125110.4955</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3656</v>
+        <v>88436.53350000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114123.8752</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7771</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>99248.00199999999</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0148</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,43 +3628,43 @@
         <v>14.6185</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7141.849</v>
       </c>
       <c r="F14" s="1">
-        <v>-7204.5182</v>
+        <v>-7141.849</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>103861.7674</v>
       </c>
       <c r="I14" s="1">
-        <v>125110.4955</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3656</v>
+        <v>103861.7674</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114123.8752</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9796</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104773.147</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>104773.147</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>104773.147</v>
+        <v>103861.7674</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.041</v>
+        <v>0.0551</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>20.979</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>476.6671</v>
       </c>
       <c r="G2" s="1">
-        <v>476.6671</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.186299999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>20.979</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.186299999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>22.3911</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>476.6671</v>
       </c>
       <c r="F3" s="1">
         <v>427.9304</v>
       </c>
       <c r="G3" s="1">
-        <v>904.5975</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10617.8083</v>
       </c>
       <c r="I3" s="1">
-        <v>19581.8316</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>21.647</v>
+        <v>10617.8083</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9581.8316</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>20.1017</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9581.8316</v>
       </c>
-      <c r="O3" s="1">
-        <v>418.1684</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20568.1684</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0311</v>
+        <v>0.0618</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>23.2533</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>904.5975</v>
       </c>
       <c r="F4" s="1">
         <v>411.8182</v>
       </c>
       <c r="G4" s="1">
-        <v>1316.4157</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>20925.7828</v>
       </c>
       <c r="I4" s="1">
-        <v>29157.9641</v>
+        <v>418.1684</v>
       </c>
       <c r="J4" s="1">
-        <v>22.1495</v>
+        <v>21343.9512</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19157.9641</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>21.1784</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9576.1325</v>
       </c>
-      <c r="O4" s="1">
-        <v>842.0359</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31294.2859</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0238</v>
+        <v>0.0352</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>22.965</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>1316.4157</v>
       </c>
       <c r="F5" s="1">
         <v>474.2353</v>
       </c>
       <c r="G5" s="1">
-        <v>1790.651</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>30074.702</v>
       </c>
       <c r="I5" s="1">
-        <v>40048.7773</v>
+        <v>842.0359</v>
       </c>
       <c r="J5" s="1">
-        <v>22.3655</v>
+        <v>30916.7379</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30048.7773</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>22.8262</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10890.8132</v>
       </c>
-      <c r="O5" s="1">
-        <v>-48.7773</v>
-      </c>
-      <c r="P5" s="1">
-        <v>40860.2565</v>
-      </c>
       <c r="Q5" s="3">
-        <v>-0.0105</v>
+        <v>-0.0136</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>19.9668</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>1790.651</v>
       </c>
       <c r="F6" s="1">
         <v>498.3885</v>
       </c>
       <c r="G6" s="1">
-        <v>2289.0395</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>45467.8776</v>
+        <v>35568.2381</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>-48.7773</v>
       </c>
       <c r="J6" s="1">
-        <v>21.8432</v>
+        <v>35519.4608</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>22.3382</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-9951.2227</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>45467.8776</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.106</v>
+        <v>-0.1319</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>18.2441</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>2289.0395</v>
       </c>
       <c r="F7" s="1">
         <v>548.1224</v>
       </c>
       <c r="G7" s="1">
-        <v>2837.1619</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51493.0694</v>
+        <v>41544.9217</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>21.1479</v>
+        <v>41544.9217</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>21.8432</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>51493.0694</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0717</v>
+        <v>-0.0873</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.3227</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>2837.1619</v>
       </c>
       <c r="F8" s="1">
         <v>698.1924</v>
       </c>
       <c r="G8" s="1">
-        <v>3535.3542</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>50373.1415</v>
+        <v>40425.0172</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>19.8</v>
+        <v>40425.0172</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>21.1479</v>
+      </c>
+      <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="1">
-        <v>5106.8914</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-4893.1086</v>
+        <v>4120.271</v>
       </c>
       <c r="O8" s="1">
-        <v>5106.8914</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>55480.0329</v>
+        <v>-5879.729</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0978</v>
+        <v>-0.2157</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>15.7433</v>
       </c>
       <c r="E9" s="1">
+        <v>3535.3542</v>
+      </c>
+      <c r="F9" s="1">
+        <v>896.9067</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>959.5759</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4494.9302</v>
-      </c>
       <c r="H9" s="1">
-        <v>70398.2476</v>
+        <v>55369.6577</v>
       </c>
       <c r="I9" s="1">
-        <v>85106.89139999999</v>
+        <v>4120.271</v>
       </c>
       <c r="J9" s="1">
-        <v>18.934</v>
+        <v>59489.9287</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>74120.27099999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>20.9654</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-15106.8914</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>70398.2476</v>
+        <v>-14120.271</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0751</v>
+        <v>0.1798</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>16.1934</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4432.2609</v>
       </c>
       <c r="F10" s="1">
         <v>617.5355</v>
       </c>
       <c r="G10" s="1">
-        <v>5112.4657</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>82358.7549</v>
+        <v>71401.0643</v>
       </c>
       <c r="I10" s="1">
-        <v>95106.89139999999</v>
+        <v>-0</v>
       </c>
       <c r="J10" s="1">
-        <v>18.6029</v>
+        <v>71401.0643</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>84120.27099999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>18.9791</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>82358.7549</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0244</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>15.2218</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5049.7965</v>
       </c>
       <c r="F11" s="1">
         <v>656.9525</v>
       </c>
       <c r="G11" s="1">
-        <v>5769.4182</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>87365.72319999999</v>
+        <v>76468.56299999999</v>
       </c>
       <c r="I11" s="1">
-        <v>105106.8914</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>18.2179</v>
+        <v>76468.56299999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>94120.27099999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>18.6384</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>87365.72319999999</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.0541</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>14.0702</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5706.749</v>
       </c>
       <c r="F12" s="1">
         <v>710.722</v>
       </c>
       <c r="G12" s="1">
-        <v>6480.1402</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>90704.46610000001</v>
+        <v>79879.0778</v>
       </c>
       <c r="I12" s="1">
-        <v>115106.8914</v>
+        <v>-0</v>
       </c>
       <c r="J12" s="1">
-        <v>17.763</v>
+        <v>79879.0778</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>104120.271</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>18.2451</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>90704.46610000001</v>
-      </c>
       <c r="Q12" s="3">
-        <v>-0.0684</v>
+        <v>-0.0762</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>13.8476</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>6417.471</v>
       </c>
       <c r="F13" s="1">
         <v>722.1468</v>
       </c>
       <c r="G13" s="1">
-        <v>7202.287</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>99217.26489999999</v>
+        <v>88405.79640000001</v>
       </c>
       <c r="I13" s="1">
-        <v>125106.8914</v>
+        <v>-0</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3704</v>
+        <v>88405.79640000001</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>114120.271</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7827</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>99217.26489999999</v>
-      </c>
       <c r="Q13" s="3">
-        <v>-0.0148</v>
+        <v>-0.0164</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>14.6185</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>7139.6178</v>
       </c>
       <c r="F14" s="1">
-        <v>-7202.287</v>
+        <v>-7139.6178</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>103829.3191</v>
       </c>
       <c r="I14" s="1">
-        <v>125106.8914</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3704</v>
+        <v>103829.3191</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>114120.271</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.9841</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>104740.6988</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>104740.6988</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>104740.6988</v>
+        <v>103829.3191</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.041</v>
+        <v>0.0551</v>
       </c>
     </row>
   </sheetData>
@@ -4481,7 +4454,7 @@
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.5791</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>17.3281</v>
+        <v>15.9522</v>
       </c>
       <c r="D3" s="1">
-        <v>17.3559</v>
+        <v>15.9707</v>
       </c>
       <c r="E3" s="1">
-        <v>17.3607</v>
+        <v>15.9751</v>
       </c>
       <c r="F3" s="1">
-        <v>17.3656</v>
+        <v>15.9796</v>
       </c>
       <c r="G3" s="1">
-        <v>17.3704</v>
+        <v>15.9841</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>-0.3064</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.307</v>
+        <v>-0.2397</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.3075</v>
+        <v>-0.2395</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.3083</v>
+        <v>-0.2404</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.3091</v>
+        <v>-0.2414</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.3099</v>
+        <v>-0.2424</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.3039</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1871</v>
+        <v>0.3426</v>
       </c>
       <c r="D5" s="3">
-        <v>0.187</v>
+        <v>0.3422</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1873</v>
+        <v>0.3426</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1876</v>
+        <v>0.3429</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1879</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>-1.075</v>
       </c>
       <c r="C6" s="4">
-        <v>-1.7494</v>
+        <v>-0.7591</v>
       </c>
       <c r="D6" s="4">
-        <v>-1.7532</v>
+        <v>-0.759</v>
       </c>
       <c r="E6" s="4">
-        <v>-1.7546</v>
+        <v>-0.7612</v>
       </c>
       <c r="F6" s="4">
-        <v>-1.7559</v>
+        <v>-0.7634</v>
       </c>
       <c r="G6" s="4">
-        <v>-1.7572</v>
+        <v>-0.7655</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.2265</v>
+        <v>-0.3967</v>
       </c>
       <c r="D7" s="3">
-        <v>-0.2266</v>
+        <v>-0.2394</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.2269</v>
+        <v>-0.2397</v>
       </c>
       <c r="F7" s="3">
-        <v>-0.2273</v>
+        <v>-0.24</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.2276</v>
+        <v>-0.2403</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5107.8936</v>
+        <v>4121.2733</v>
       </c>
       <c r="D8" s="1">
-        <v>5117.6307</v>
+        <v>4131.0104</v>
       </c>
       <c r="E8" s="1">
-        <v>5114.0753</v>
+        <v>4127.4549</v>
       </c>
       <c r="F8" s="1">
-        <v>5110.4955</v>
+        <v>4123.8752</v>
       </c>
       <c r="G8" s="1">
-        <v>5106.8914</v>
+        <v>4120.271</v>
       </c>
     </row>
   </sheetData>
